--- a/Stage 1.1/src/cc25_2.xlsx
+++ b/Stage 1.1/src/cc25_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aguli\Desktop\Complex Core Project\project\Stage 1.1\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628617B1-FC85-4395-93DA-0794532BE7D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5DEC85-8B7F-413B-AC90-0CB0B5A70783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1830" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
   <si>
     <t>CC25</t>
   </si>
@@ -169,19 +169,28 @@
     <t>Leg axis R</t>
   </si>
   <si>
+    <t>Additional Information</t>
+  </si>
+  <si>
     <t>Result</t>
   </si>
   <si>
     <t>Roman Jahoda</t>
   </si>
   <si>
+    <t>24-07-1967</t>
+  </si>
+  <si>
+    <t>Roman</t>
+  </si>
+  <si>
     <t>Taro Netzer</t>
   </si>
   <si>
-    <t>24-07-1967</t>
-  </si>
-  <si>
     <t>24-07-1968</t>
+  </si>
+  <si>
+    <t>Taro</t>
   </si>
 </sst>
 </file>
@@ -210,10 +219,10 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -243,14 +252,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -263,18 +279,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,45 +598,45 @@
   </sheetPr>
   <dimension ref="A1:AP15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AN8" sqref="AN8"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AM16" sqref="AM16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8" style="13" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="34" max="36" width="10.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="9.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10" style="13" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="9.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="17.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8" style="15" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="10.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="9.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10" style="15" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="23.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="17.7109375" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -812,118 +828,118 @@
     <row r="5" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="R5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="S5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="T5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="U5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="V5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="W5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="X5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="Y5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="Z5" s="3" t="s">
+      <c r="Z5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AA5" s="3" t="s">
+      <c r="AA5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AB5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AC5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AD5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AE5" s="3" t="s">
+      <c r="AE5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AF5" s="3" t="s">
+      <c r="AF5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AG5" s="3" t="s">
+      <c r="AG5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AH5" s="3" t="s">
+      <c r="AH5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AI5" s="3" t="s">
+      <c r="AI5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AJ5" s="3" t="s">
+      <c r="AJ5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AK5" s="3" t="s">
+      <c r="AK5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AL5" s="3" t="s">
+      <c r="AL5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AM5" s="3" t="s">
+      <c r="AM5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AN5" s="3" t="s">
+      <c r="AN5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="AO5" s="3"/>
@@ -933,374 +949,380 @@
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="O6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="P6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="Q6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="R6" s="6" t="s">
+      <c r="R6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="S6" s="6" t="s">
+      <c r="S6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="T6" s="6" t="s">
+      <c r="T6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="U6" s="6" t="s">
+      <c r="U6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="V6" s="6" t="s">
+      <c r="V6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="W6" s="6" t="s">
+      <c r="W6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="X6" s="6" t="s">
+      <c r="X6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Y6" s="6" t="s">
+      <c r="Y6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Z6" s="6" t="s">
+      <c r="Z6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AA6" s="6" t="s">
+      <c r="AA6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AB6" s="6" t="s">
+      <c r="AB6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AC6" s="6" t="s">
+      <c r="AC6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AD6" s="6" t="s">
+      <c r="AD6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AE6" s="6" t="s">
+      <c r="AE6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AF6" s="6" t="s">
+      <c r="AF6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AG6" s="6" t="s">
+      <c r="AG6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AH6" s="6" t="s">
+      <c r="AH6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AI6" s="6" t="s">
+      <c r="AI6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AJ6" s="6" t="s">
+      <c r="AJ6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AK6" s="6" t="s">
+      <c r="AK6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AL6" s="6" t="s">
+      <c r="AL6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AM6" s="6" t="s">
+      <c r="AM6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AN6" s="6" t="s">
+      <c r="AN6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AO6" s="7" t="s">
+      <c r="AO6" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AP6" s="8"/>
+      <c r="AP6" s="9" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="7" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="9">
-        <v>0</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="C7" s="11">
+        <v>0</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11">
         <v>3</v>
       </c>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9">
-        <v>0</v>
-      </c>
-      <c r="L7" s="9">
-        <v>0</v>
-      </c>
-      <c r="M7" s="9">
-        <v>0</v>
-      </c>
-      <c r="N7" s="9">
-        <v>0</v>
-      </c>
-      <c r="O7" s="9">
-        <v>0</v>
-      </c>
-      <c r="P7" s="9">
+      <c r="F7" s="11">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11">
+        <v>0</v>
+      </c>
+      <c r="L7" s="11">
+        <v>0</v>
+      </c>
+      <c r="M7" s="11">
+        <v>0</v>
+      </c>
+      <c r="N7" s="11">
+        <v>0</v>
+      </c>
+      <c r="O7" s="11">
+        <v>0</v>
+      </c>
+      <c r="P7" s="11">
         <v>3</v>
       </c>
-      <c r="Q7" s="9">
-        <v>0</v>
-      </c>
-      <c r="R7" s="9">
-        <v>0</v>
-      </c>
-      <c r="S7" s="9">
-        <v>0</v>
-      </c>
-      <c r="T7" s="9">
-        <v>0</v>
-      </c>
-      <c r="U7" s="9">
-        <v>0</v>
-      </c>
-      <c r="V7" s="9">
-        <v>0</v>
-      </c>
-      <c r="W7" s="9">
-        <v>0</v>
-      </c>
-      <c r="X7" s="9">
+      <c r="Q7" s="11">
+        <v>0</v>
+      </c>
+      <c r="R7" s="11">
+        <v>0</v>
+      </c>
+      <c r="S7" s="11">
+        <v>0</v>
+      </c>
+      <c r="T7" s="11">
+        <v>0</v>
+      </c>
+      <c r="U7" s="11">
+        <v>0</v>
+      </c>
+      <c r="V7" s="11">
+        <v>0</v>
+      </c>
+      <c r="W7" s="11">
+        <v>0</v>
+      </c>
+      <c r="X7" s="11">
         <v>3</v>
       </c>
-      <c r="Y7" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="9">
-        <v>1</v>
-      </c>
-      <c r="AO7" s="9"/>
-      <c r="AP7" s="10"/>
+      <c r="Y7" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="11">
+        <v>3</v>
+      </c>
+      <c r="AO7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP7" s="12"/>
     </row>
-    <row r="8" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="9">
-        <v>0</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0</v>
-      </c>
-      <c r="F8" s="9">
+        <v>54</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
         <v>3</v>
       </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9">
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0</v>
+      </c>
+      <c r="I8" s="11">
         <v>3</v>
       </c>
-      <c r="J8" s="9">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9">
-        <v>0</v>
-      </c>
-      <c r="L8" s="9">
-        <v>0</v>
-      </c>
-      <c r="M8" s="9">
-        <v>0</v>
-      </c>
-      <c r="N8" s="9">
-        <v>0</v>
-      </c>
-      <c r="O8" s="9">
-        <v>0</v>
-      </c>
-      <c r="P8" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="9">
-        <v>0</v>
-      </c>
-      <c r="R8" s="9">
-        <v>0</v>
-      </c>
-      <c r="S8" s="9">
-        <v>0</v>
-      </c>
-      <c r="T8" s="9">
-        <v>0</v>
-      </c>
-      <c r="U8" s="9">
-        <v>0</v>
-      </c>
-      <c r="V8" s="9">
-        <v>0</v>
-      </c>
-      <c r="W8" s="9">
-        <v>0</v>
-      </c>
-      <c r="X8" s="9">
+      <c r="J8" s="11">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11">
+        <v>0</v>
+      </c>
+      <c r="L8" s="11">
+        <v>0</v>
+      </c>
+      <c r="M8" s="11">
+        <v>0</v>
+      </c>
+      <c r="N8" s="11">
+        <v>0</v>
+      </c>
+      <c r="O8" s="11">
+        <v>0</v>
+      </c>
+      <c r="P8" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>0</v>
+      </c>
+      <c r="R8" s="11">
+        <v>0</v>
+      </c>
+      <c r="S8" s="11">
+        <v>0</v>
+      </c>
+      <c r="T8" s="11">
+        <v>0</v>
+      </c>
+      <c r="U8" s="11">
+        <v>0</v>
+      </c>
+      <c r="V8" s="11">
+        <v>0</v>
+      </c>
+      <c r="W8" s="11">
+        <v>0</v>
+      </c>
+      <c r="X8" s="11">
         <v>3</v>
       </c>
-      <c r="Y8" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="9">
-        <v>1</v>
-      </c>
-      <c r="AO8" s="3"/>
+      <c r="Y8" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="11">
+        <v>3</v>
+      </c>
+      <c r="AO8" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="AP8" s="4"/>
     </row>
     <row r="9" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1612,7 +1634,6 @@
       <c r="AP15" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>